--- a/src/R/Dashboard/www/cut_offs_download.xlsx
+++ b/src/R/Dashboard/www/cut_offs_download.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Documents/OPS/Polio Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivermazariegos/Sites/polio-risk/src/R/cut_offs_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6C14EF-3084-A44E-9679-48B93A7B9B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD5EAB-B448-934F-90E0-3D81E0C411A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22780" windowHeight="14660" xr2:uid="{4197A8B5-0EC7-4519-934B-4E3E0FF6AD5B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27740" windowHeight="16880" activeTab="1" xr2:uid="{4197A8B5-0EC7-4519-934B-4E3E0FF6AD5B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Punteos de riesgo" sheetId="2" r:id="rId1"/>
+    <sheet name="Límites de categorías de riesgo" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="72">
   <si>
     <t>&gt;100000 o con &lt;100000 pero que si haya tenido casos de PFA</t>
   </si>
@@ -308,12 +308,18 @@
   <si>
     <t>TN</t>
   </si>
+  <si>
+    <t>Categoría de Riesgo</t>
+  </si>
+  <si>
+    <t>Componente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +361,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -410,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -756,206 +769,311 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,1373 +1470,1215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE8A0D5-6450-1343-B741-30105C505B91}">
   <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
     </row>
     <row r="7" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="38" t="s">
+      <c r="I8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="28" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="15" t="s">
+      <c r="O8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="37" t="s">
+      <c r="Q8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41">
+      <c r="A9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="11">
         <v>8</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="11">
         <v>2</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="11">
         <v>2</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="12">
         <f>C9*5</f>
         <v>40</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="13">
         <f>H9+C11+C13</f>
         <v>54</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="14">
         <f>I9+I14+I26</f>
         <v>100</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="41">
+      <c r="K9" s="5"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="11">
         <v>10</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="11">
         <v>6</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="11">
         <v>3</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="11">
         <v>0</v>
       </c>
-      <c r="R9" s="41">
+      <c r="R9" s="11">
         <v>3</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="12">
         <f>N9*5</f>
         <v>50</v>
       </c>
-      <c r="T9" s="43">
+      <c r="T9" s="13">
         <f>S9+N11+N13</f>
         <v>68</v>
       </c>
-      <c r="U9" s="44">
+      <c r="U9" s="14">
         <f>T9+T14+T18</f>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="40" t="s">
+      <c r="I10" s="17"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="45" t="s">
+      <c r="P10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="45" t="s">
+      <c r="R10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="T10" s="47"/>
-      <c r="U10" s="33"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41">
+      <c r="A11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="11">
         <v>8</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="11">
         <v>5</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="11">
         <v>2</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="18">
         <v>0</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="11">
         <v>2</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41">
+      <c r="I11" s="17"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="11">
         <v>10</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="11">
         <v>6</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="11">
         <v>3</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="18">
         <v>0</v>
       </c>
-      <c r="R11" s="41">
+      <c r="R11" s="11">
         <v>3</v>
       </c>
-      <c r="T11" s="47"/>
-      <c r="U11" s="33"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="40" t="s">
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="33"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="5"/>
     </row>
     <row r="13" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51">
+      <c r="A13" s="42"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="20">
         <v>6</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
-      <c r="E13" s="51">
+      <c r="E13" s="20">
         <v>0</v>
       </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="41">
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="11">
         <v>8</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="11">
         <v>0</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="11">
         <v>0</v>
       </c>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="33"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="58">
+      <c r="F14" s="50"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24">
         <f>C15+C17+C19+C21+C23+C25</f>
         <v>36</v>
       </c>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="28" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="M14" s="59" t="s">
+      <c r="M14" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="15" t="s">
+      <c r="N14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="54" t="s">
+      <c r="O14" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="58">
+      <c r="Q14" s="50"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24">
         <f>N15+N17</f>
         <v>20</v>
       </c>
-      <c r="U14" s="33"/>
+      <c r="U14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61">
+      <c r="A15" s="42"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="25">
         <v>8</v>
       </c>
-      <c r="D15" s="61">
+      <c r="D15" s="25">
         <v>0</v>
       </c>
-      <c r="E15" s="62">
+      <c r="E15" s="52">
         <v>8</v>
       </c>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="61">
+      <c r="F15" s="52"/>
+      <c r="G15" s="26"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="25">
         <v>8</v>
       </c>
-      <c r="O15" s="61">
+      <c r="O15" s="25">
         <v>0</v>
       </c>
-      <c r="P15" s="62">
+      <c r="P15" s="52">
         <v>8</v>
       </c>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="63"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="33"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="26"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="40" t="s">
+      <c r="E16" s="19"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P16" s="49"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="33"/>
+      <c r="P16" s="19"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41">
+      <c r="A17" s="42"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="11">
         <v>8</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="51">
+      <c r="E17" s="19"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="20">
         <v>12</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="11">
         <v>0</v>
       </c>
-      <c r="P17" s="49"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="33"/>
+      <c r="P17" s="19"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="5"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="40" t="s">
+      <c r="A18" s="42"/>
+      <c r="B18" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="22" t="s">
+      <c r="E18" s="19"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="35" t="s">
+      <c r="M18" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="64" t="s">
+      <c r="O18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="58">
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="24">
         <f>N19+N21</f>
         <v>12</v>
       </c>
-      <c r="U18" s="33"/>
+      <c r="U18" s="5"/>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41">
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="11">
         <v>5</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
-      <c r="E19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41">
+      <c r="E19" s="19"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="11">
         <v>6</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="11">
         <v>0</v>
       </c>
-      <c r="T19" s="47"/>
-      <c r="U19" s="33"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="5"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="40" t="s">
+      <c r="A20" s="42"/>
+      <c r="B20" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="40" t="s">
+      <c r="E20" s="19"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="65" t="s">
+      <c r="O20" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="T20" s="47"/>
-      <c r="U20" s="33"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="5"/>
     </row>
     <row r="21" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="A21" s="42"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="11">
         <v>5</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="11">
         <v>0</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="66">
+      <c r="E21" s="19"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="29">
         <v>6</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O21" s="29">
         <v>0</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
-      <c r="R21" s="67"/>
-      <c r="S21" s="67"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="33"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+      <c r="U21" s="5"/>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
+      <c r="E22" s="19"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="29"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41">
+      <c r="A23" s="42"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="11">
         <v>5</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
+      <c r="E23" s="19"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="29"/>
-      <c r="B24" s="40" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="49"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
+      <c r="E24" s="19"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
     </row>
     <row r="25" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="66">
+      <c r="A25" s="43"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="29">
         <v>5</v>
       </c>
-      <c r="D25" s="66">
+      <c r="D25" s="29">
         <v>0</v>
       </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24">
         <f>C27+C29</f>
         <v>10</v>
       </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41">
+      <c r="A27" s="37"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="11">
         <v>5</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="11">
         <v>0</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="40" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
     </row>
     <row r="29" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="66">
+      <c r="A29" s="38"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="29">
         <v>5</v>
       </c>
-      <c r="D29" s="66">
+      <c r="D29" s="29">
         <v>0</v>
       </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
     </row>
     <row r="31" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
     </row>
     <row r="33" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="71">
+      <c r="A33" s="40"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="33">
         <v>4</v>
       </c>
-      <c r="D33" s="71">
+      <c r="D33" s="33">
         <v>2</v>
       </c>
-      <c r="E33" s="71">
+      <c r="E33" s="33">
         <v>2</v>
       </c>
-      <c r="F33" s="71">
+      <c r="F33" s="33">
         <v>2</v>
       </c>
-      <c r="G33" s="71">
+      <c r="G33" s="33">
         <v>2</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="34">
         <v>2</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="I34" s="73"/>
-      <c r="L34" s="70"/>
-    </row>
-    <row r="35" spans="1:21" ht="97" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="I34" s="35"/>
+      <c r="L34" s="46"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="4">
-        <v>54</v>
-      </c>
-      <c r="D36" s="5">
-        <v>68</v>
-      </c>
+      <c r="A36" s="88"/>
+      <c r="B36" s="83"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A37" s="88"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>9</v>
-      </c>
+      <c r="A38" s="88"/>
+      <c r="B38" s="83"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="A39" s="88"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" s="88"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="4">
-        <v>36</v>
-      </c>
-      <c r="D41" s="5">
-        <v>20</v>
-      </c>
+      <c r="A41" s="88"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A42" s="23"/>
-      <c r="B42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="8">
-        <v>20</v>
-      </c>
+      <c r="A42" s="88"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="B43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="14">
-        <v>12</v>
-      </c>
+      <c r="A43" s="88"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="86"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A44" s="23"/>
-      <c r="B44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0</v>
-      </c>
+      <c r="A44" s="88"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="86"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" s="88"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A46" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="15">
-        <v>10</v>
-      </c>
-      <c r="D46" s="5">
-        <v>12</v>
-      </c>
+      <c r="A46" s="88"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="85"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A47" s="23"/>
-      <c r="B47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A47" s="88"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="16">
-        <v>10</v>
-      </c>
-      <c r="D48" s="17">
-        <v>12</v>
-      </c>
+      <c r="A48" s="88"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="23"/>
-      <c r="B49" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="16">
-        <v>5</v>
-      </c>
-      <c r="D49" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="18">
-        <v>0</v>
-      </c>
-      <c r="D50" s="19">
-        <v>0</v>
-      </c>
+      <c r="A49" s="88"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="88"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="15">
-        <v>14</v>
-      </c>
-      <c r="D51" s="20">
-        <v>14</v>
-      </c>
+      <c r="A51" s="89"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="A52" s="89"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>24</v>
-      </c>
+      <c r="A53" s="89"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="26"/>
-      <c r="B54" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="16">
-        <v>2</v>
-      </c>
-      <c r="D54" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="18">
-        <v>0</v>
-      </c>
-      <c r="D55" s="19">
-        <v>0</v>
-      </c>
+      <c r="A54" s="89"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="89"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="A56" s="88"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="29"/>
-      <c r="B57" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="A57" s="88"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="29"/>
-      <c r="B58" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="30"/>
-      <c r="B59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="A58" s="88"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="88"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="L18:L21"/>
+  <mergeCells count="33">
+    <mergeCell ref="A1:U6"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="L8:L13"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="M16:M17"/>
     <mergeCell ref="M18:M19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="M20:M21"/>
@@ -2728,20 +2688,16 @@
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="M14:M15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="A1:U6"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="L8:L13"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <conditionalFormatting sqref="J9">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
@@ -2760,20 +2716,338 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F1F3C2-CE97-4E8C-8744-58BD9E002719}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="4" width="35.6640625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="41" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="92">
+        <v>54</v>
+      </c>
+      <c r="D2" s="93">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="57">
+        <v>36</v>
+      </c>
+      <c r="D7" s="58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="62">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="70">
+        <v>10</v>
+      </c>
+      <c r="D12" s="58">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="71">
+        <v>10</v>
+      </c>
+      <c r="D14" s="72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="59"/>
+      <c r="B15" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="71">
+        <v>5</v>
+      </c>
+      <c r="D15" s="72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="73">
+        <v>0</v>
+      </c>
+      <c r="D16" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="70">
+        <v>14</v>
+      </c>
+      <c r="D17" s="76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
+      <c r="B19" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="77"/>
+      <c r="B20" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="71">
+        <v>2</v>
+      </c>
+      <c r="D20" s="72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="78"/>
+      <c r="B21" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="73">
+        <v>0</v>
+      </c>
+      <c r="D21" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="81"/>
+      <c r="B24" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="82"/>
+      <c r="B25" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>